--- a/public/reports/payment_voucher.xlsx
+++ b/public/reports/payment_voucher.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uniform-Inventory-System\public\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NEURAL STACK\Uniform-Inventory-System\public\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -89,9 +89,6 @@
     <t>Payment Mode</t>
   </si>
   <si>
-    <t>Paying</t>
-  </si>
-  <si>
     <t>Balance</t>
   </si>
   <si>
@@ -104,7 +101,10 @@
     <t>sasa</t>
   </si>
   <si>
-    <t>Total Payment</t>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Total Payment Due</t>
   </si>
 </sst>
 </file>
@@ -540,6 +540,25 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -588,25 +607,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1073,7 +1073,7 @@
     <col min="2" max="2" width="25.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="2" customWidth="1"/>
@@ -3506,14 +3506,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="A1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -3546,16 +3546,16 @@
       <c r="AL1" s="6"/>
     </row>
     <row r="2" spans="1:38" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -3602,16 +3602,16 @@
       <c r="AJ3" s="8"/>
     </row>
     <row r="4" spans="1:38" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="6" spans="1:38" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="12"/>
@@ -3890,13 +3890,13 @@
       <c r="B11" s="29"/>
       <c r="C11" s="25"/>
       <c r="D11" s="37" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3"/>
@@ -3934,14 +3934,14 @@
       <c r="A12" s="20"/>
       <c r="B12" s="29"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="60" t="s">
-        <v>25</v>
-      </c>
       <c r="F12" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="3"/>
@@ -4120,11 +4120,11 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -4227,69 +4227,69 @@
       <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="55"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="60"/>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
     </row>
     <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="52"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="57"/>
     </row>
     <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
       <c r="H36" s="14"/>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -5187,6 +5187,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A31:H31"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
@@ -5194,12 +5200,6 @@
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A31:H31"/>
   </mergeCells>
   <conditionalFormatting sqref="A22:B22 A21 D21:G21 K3:IS14 J3 J15:IS37 I3:I37 B3:H3 B5:D14 E5:G5 E22:E24 D15 F15:F16 F6:F7 B26:C29 A23:C25 A29 A26 A3:A14 D22:D33 E27:E33 I38:IS49 F22:H33 A50:IS65501 A30:C33 H34:H36 H5:H21">
     <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
